--- a/Data/elementos_corte.xlsx
+++ b/Data/elementos_corte.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://epmco-my.sharepoint.com/personal/alejandro_a_lopez_edeq_com_co/Documents/OyC/Consultas SQL/Zonas_operativas/Zonas con nodos/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{D4C99279-B2F3-4ADF-8227-8A796351788D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{306D61CB-A3E9-4C2A-81A0-C6E1B06281D0}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="13_ncr:1_{D4C99279-B2F3-4ADF-8227-8A796351788D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97D2F830-13A5-401A-84B9-988D45F7E174}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Exportar Hoja de Trabajo" sheetId="11" r:id="rId1"/>
     <sheet name="SQL" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Exportar Hoja de Trabajo'!$A$1:$H$3436</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -10784,7 +10787,7 @@
   <dimension ref="A1:H3436"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -100126,6 +100129,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H3436" xr:uid="{1E1D853E-4442-4E47-9EF8-AFE59C6E1454}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -100135,7 +100139,7 @@
   <dimension ref="A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
